--- a/main/ig/StructureDefinition-FrOnAdmissionRetroactiveMedicationReconciliationComposition.xlsx
+++ b/main/ig/StructureDefinition-FrOnAdmissionRetroactiveMedicationReconciliationComposition.xlsx
@@ -834,7 +834,7 @@
     <t>The Last Modified Date on the composition may be after the date of the document was attested without being changed.</t>
   </si>
   <si>
-    <t>dateTime is used for tracking, organizing versions and searching. Note that this is the time of *authoring*. When packaged in a document, [Bundle.timestamp](bundle-definitions.html#Bundle.timestamp) is the date of packaging.</t>
+    <t>dateTime is used for tracking, organizing versions and searching. Note that this is the time of *authoring*. When packaged in a document, [Bundle.timestamp](http://hl7.org/fhir/R4/bundle-definitions.html#Bundle.timestamp) is the date of packaging.</t>
   </si>
   <si>
     <t>Event.occurrence[x]</t>
